--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -127,6 +127,24 @@
   </si>
   <si>
     <t>Terrain(Terre, mer, sables)</t>
+  </si>
+  <si>
+    <t>Réalisé</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>En attente</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Afficher les agents</t>
+  </si>
+  <si>
+    <t>Coder les agents (la classe)</t>
   </si>
 </sst>
 </file>
@@ -162,10 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,7 +498,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,267 +536,738 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="12.140625" style="1" customWidth="1"/>
-    <col min="1025" max="1027" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="4" max="1024" width="12.140625" style="2" customWidth="1"/>
+    <col min="1025" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,20 +597,98 @@
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
@@ -628,10 +706,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -648,16 +726,16 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -674,16 +752,16 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -700,39 +778,19 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -758,7 +816,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -783,6 +841,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
       <c r="D14" s="2">
         <v>0</v>
       </c>
@@ -804,7 +868,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -823,11 +887,14 @@
       </c>
       <c r="H15" s="3">
         <v>0</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -851,98 +918,98 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
@@ -954,19 +1021,19 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -986,7 +1053,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -1012,7 +1079,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -1038,7 +1105,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1064,7 +1131,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -1090,7 +1157,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -1116,7 +1183,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -1142,7 +1209,7 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -1168,7 +1235,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -1189,84 +1256,6 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Born down chart" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>Déplacement des agents</t>
+  </si>
+  <si>
+    <t>Affichage fluide</t>
+  </si>
+  <si>
+    <t>Jour 7</t>
+  </si>
+  <si>
+    <t>Total d'heures/jour</t>
+  </si>
+  <si>
+    <t>Jour 8</t>
+  </si>
+  <si>
+    <t>Jour 9</t>
+  </si>
+  <si>
+    <t>Jour 10</t>
   </si>
 </sst>
 </file>
@@ -174,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,48 +215,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,13 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +596,7 @@
     <col min="1025" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -631,31 +606,39 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="N2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -678,35 +661,59 @@
       <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -731,31 +738,55 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="4">
+      <c r="R4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
       <c r="S4" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -778,31 +809,55 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="4">
+      <c r="R5" s="4">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
       <c r="S5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -825,31 +880,55 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="4">
+      <c r="R6" s="4">
         <v>4</v>
       </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
       <c r="S6" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -872,31 +951,55 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="4">
+      <c r="R7" s="4">
         <v>1</v>
       </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0</v>
-      </c>
       <c r="S7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -919,31 +1022,55 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
         <v>3</v>
       </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>16</v>
@@ -958,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -966,31 +1093,55 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="R9" s="4">
         <v>0</v>
       </c>
       <c r="S9" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -1011,33 +1162,57 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="R10" s="4">
         <v>0</v>
       </c>
       <c r="S10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -1052,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -1060,31 +1235,55 @@
       <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="R11" s="4">
         <v>0</v>
       </c>
       <c r="S11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1093,17 +1292,25 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>20</v>
@@ -1126,31 +1333,55 @@
       <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
       <c r="R13" s="4">
         <v>0</v>
       </c>
       <c r="S13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>21</v>
@@ -1165,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1173,31 +1404,55 @@
       <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>0</v>
-      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
       <c r="R14" s="4">
         <v>0</v>
       </c>
       <c r="S14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>22</v>
@@ -1212,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1220,31 +1475,55 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
       <c r="R15" s="4">
         <v>0</v>
       </c>
       <c r="S15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>23</v>
@@ -1265,33 +1544,57 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
       <c r="R16" s="4">
         <v>0</v>
       </c>
       <c r="S16" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -1314,31 +1617,55 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="R17" s="4">
         <v>0</v>
       </c>
       <c r="S17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1347,17 +1674,25 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1366,17 +1701,25 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1385,17 +1728,25 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1404,17 +1755,25 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1423,17 +1782,25 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1442,17 +1809,25 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1477,31 +1852,55 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4" t="s">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+      <c r="S24" s="4">
         <v>2</v>
       </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4">
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>40</v>
@@ -1524,87 +1923,135 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4" t="s">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+      <c r="S25" s="4">
         <v>4</v>
       </c>
-      <c r="P25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4">
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P26" s="5"/>
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="5">
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1618,34 +2065,58 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="N27" s="4">
-        <v>0</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
-      </c>
-      <c r="P27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="4">
-        <v>0</v>
-      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
       <c r="R27" s="4">
         <v>0</v>
       </c>
       <c r="S27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="4">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1654,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -1665,34 +2136,58 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
       <c r="R28" s="4">
         <v>0</v>
       </c>
       <c r="S28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="4">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1701,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1712,34 +2207,58 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
       <c r="R29" s="4">
         <v>0</v>
       </c>
       <c r="S29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="4">
+        <v>2</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="5">
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1754,39 +2273,63 @@
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
       <c r="R30" s="4">
         <v>0</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
@@ -1801,39 +2344,63 @@
         <v>0</v>
       </c>
       <c r="G31" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
       <c r="R31" s="4">
         <v>0</v>
       </c>
       <c r="S31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -1851,36 +2418,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
       <c r="R32" s="4">
         <v>0</v>
       </c>
       <c r="S32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -1900,34 +2491,58 @@
       <c r="H33" s="4">
         <v>0</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
       <c r="R33" s="4">
         <v>0</v>
       </c>
       <c r="S33" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1947,34 +2562,58 @@
       <c r="H34" s="4">
         <v>0</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>5</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <v>0</v>
-      </c>
-      <c r="P34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0</v>
-      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
       <c r="R34" s="4">
         <v>0</v>
       </c>
       <c r="S34" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="4">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1994,81 +2633,288 @@
       <c r="H35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
       <c r="R35" s="4">
         <v>0</v>
       </c>
       <c r="S35" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="4">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>3</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>2</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="N36" s="4">
-        <v>0</v>
-      </c>
-      <c r="O36" s="4">
-        <v>0</v>
-      </c>
-      <c r="P36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>0</v>
-      </c>
-      <c r="R36" s="4">
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C4:C37)</f>
+        <v>8</v>
+      </c>
+      <c r="D44" s="5">
+        <f>SUM(D4:D37)</f>
+        <v>9</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" ref="E44:I44" si="0">SUM(E4:E37)</f>
+        <v>10</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="5">
+        <f>SUM(I4:I37)</f>
+        <v>6</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" ref="J44:Z44" si="1">SUM(J4:J37)</f>
+        <v>7</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S44" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="R2:AA2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -394,6 +394,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Burn down chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -403,6 +422,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Réel</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Sprint Backlog'!$C$2:$L$2</c:f>
@@ -485,6 +507,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Idéal</c:v>
+          </c:tx>
           <c:val>
             <c:numRef>
               <c:f>'Sprint Backlog'!$C$46:$L$46</c:f>
@@ -536,20 +561,20 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="266994432"/>
-        <c:axId val="266995968"/>
+        <c:axId val="166773120"/>
+        <c:axId val="166774656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="266994432"/>
+        <c:axId val="166773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266995968"/>
+        <c:crossAx val="166774656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -557,7 +582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266995968"/>
+        <c:axId val="166774656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -565,6 +590,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Heures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -572,7 +616,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="266994432"/>
+        <c:crossAx val="166773120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -583,6 +627,11 @@
         </a:ln>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -605,10 +654,10 @@
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1150,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -3040,39 +3089,39 @@
         <v>118</v>
       </c>
       <c r="D44" s="4">
-        <f>SUM(D3:D37)</f>
+        <f t="shared" ref="D44:L44" si="0">SUM(D3:D37)</f>
         <v>106</v>
       </c>
       <c r="E44" s="4">
-        <f>SUM(E3:E37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="F44" s="4">
-        <f>SUM(F3:F37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="G44" s="4">
-        <f>SUM(G3:G37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="H44" s="4">
-        <f>SUM(H3:H37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I44" s="4">
-        <f>SUM(I3:I37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="J44" s="4">
-        <f>SUM(J3:J37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="K44" s="4">
-        <f>SUM(K3:K37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="L44" s="4">
-        <f>SUM(L3:L37)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -3258,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>

--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Nombre de jours sans compter J1</t>
+  </si>
+  <si>
+    <t>Users stories</t>
   </si>
 </sst>
 </file>
@@ -233,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -256,11 +259,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +325,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166773120"/>
-        <c:axId val="166774656"/>
+        <c:axId val="255336832"/>
+        <c:axId val="255338368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166773120"/>
+        <c:axId val="255336832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +609,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166774656"/>
+        <c:crossAx val="255338368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166774656"/>
+        <c:axId val="255338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -616,7 +651,7 @@
         <c:spPr>
           <a:ln w="9525"/>
         </c:spPr>
-        <c:crossAx val="166773120"/>
+        <c:crossAx val="255336832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1199,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,12 +1247,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1243,9 +1276,11 @@
       <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -3295,8 +3330,9 @@
       <c r="AA52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3307,7 +3343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
